--- a/documnets/外部設計書_ヨッシーアイランド (鈴木).xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド (鈴木).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29A40D7-1270-424B-BA54-C1BE6F71DA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FF1180-F55C-45F9-9D45-7811584C8EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3013,398 +3013,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>14006</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>126064</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>154079</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC8315A-6EFF-4DB0-837B-72D71BD1E0EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5538506" y="2793064"/>
-          <a:ext cx="1975597" cy="409015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ユーザ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>入力欄</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28012</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>154082</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>224116</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>182097</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83162F8E-9FEB-4F8C-B15F-DF0EC81787BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5552512" y="3583082"/>
-          <a:ext cx="2405904" cy="409015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>パスワード　入力欄</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14007</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>140072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266138</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99259011-4FA0-4261-9C38-F1F37B27CE8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3328707" y="3569072"/>
-          <a:ext cx="1357031" cy="409015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>パスワード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>42022</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>210110</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182095</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD26440-4192-4224-A50D-6A0C3C7B65FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3356722" y="2821080"/>
-          <a:ext cx="1272988" cy="409015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ユーザ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>　</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>98052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>126067</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F957F7DF-BC29-4EF1-9574-C9299D7EA837}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8562975" y="1812552"/>
-          <a:ext cx="1272988" cy="409015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>新規登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>14006</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>126066</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>154081</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>154081</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1390D709-FF76-432E-8750-46BA553C1195}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6643406" y="4317066"/>
-          <a:ext cx="2073650" cy="409015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>管理者ログイン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>154079</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>70037</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>182097</xdr:rowOff>
+      <xdr:rowOff>182096</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3419,8 +3037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4573679" y="1580031"/>
-          <a:ext cx="2125758" cy="507066"/>
+          <a:off x="4535579" y="1619249"/>
+          <a:ext cx="2106708" cy="467847"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3456,16 +3074,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>243025</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>16806</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>86145</xdr:rowOff>
+      <xdr:rowOff>157583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>158983</xdr:colOff>
+      <xdr:colOff>206608</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>44123</xdr:rowOff>
+      <xdr:rowOff>115561</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3480,7 +3098,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7910650" y="5229645"/>
+          <a:off x="7958275" y="5301083"/>
           <a:ext cx="2106708" cy="338978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3518,23 +3136,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>168086</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>42022</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28017</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA8B281-FBF5-4710-B647-569EFE7051AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B493E3-1D18-45E3-81F1-C21E876C1010}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3542,25 +3160,33 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3206561" y="4572001"/>
-          <a:ext cx="1807511" cy="409016"/>
+          <a:off x="2988469" y="2738437"/>
+          <a:ext cx="2559844" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3568,10 +3194,1867 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42DD1E9D-ECB0-49B0-9A32-4D74803B85DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6060280" y="2750343"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B7FC1B-ED6F-428B-9528-746F541A4E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7441405" y="2750343"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEE3E7C-3773-49A4-90F3-DA5F31E9645C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620124" y="2750343"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>119059</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>261935</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC3D7AE-1282-427F-94F0-18E4BEEFE507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143622" y="2821781"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>130966</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>273842</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE39E93-FBF5-4BC9-96F0-D66725B0C823}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524747" y="2821781"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>214310</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB0BDE2-8136-45D9-90FF-33296E05BADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8703466" y="2821781"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B1B1B1-A128-43BF-AAF9-3443C8C26DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2988469" y="3226593"/>
+          <a:ext cx="2559844" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7465CE12-E81D-41A3-819B-24A48885FA4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6060280" y="3238499"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA065A5-71AD-4B2C-AAE0-554E85EEDB8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7441405" y="3238499"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC76269-DCD2-4600-A6FF-F97E16C2E8D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620124" y="3238499"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>119059</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>261935</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC4CF60-EA6F-4FEF-9ED5-210313E5C431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143622" y="3309937"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>130966</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>273842</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37328371-E258-4FEB-ABD4-E5FB1CD10430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524747" y="3309937"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>214310</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E185950E-1AA2-4335-9600-8ABD9DEE9648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8703466" y="3309937"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594466F8-31F3-4E19-AC39-FD887FEED5F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2988469" y="3714749"/>
+          <a:ext cx="2559844" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E43984B-D0FD-42F1-B3F4-D8799DE7C1DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6060280" y="3726655"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7D0A89-0F1A-467C-A860-FBDE62041265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7441405" y="3726655"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4CD8E6-209D-46ED-BFD3-C5F5F60084B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620124" y="3726655"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>119059</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>261935</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CA76CA-19C1-4782-85F6-2D85630E1EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143622" y="3798093"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>130966</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>273842</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB1A0CB-6435-473B-BBFC-8A9DA68EA196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524747" y="3798093"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>214310</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FCC645-5B87-4174-A7A8-61A02DD5E726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8703466" y="3798093"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30A6340-6027-4982-89EE-6DB5091538EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2976562" y="2321720"/>
+          <a:ext cx="2559844" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ログインボタン</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>質問事項</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7B0B34-D6A5-4FCE-A1DC-8FC0C627C471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2393156" y="2333627"/>
+          <a:ext cx="428625" cy="273842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A10948F-65FD-4326-BFA9-7A675C2781E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631656" y="2321719"/>
+          <a:ext cx="1166813" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>当てはまらない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F47769-D73B-4DBE-9FB5-628B29F2F647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6881812" y="2309812"/>
+          <a:ext cx="1369219" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>どちらともいえない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE71D85-593E-451D-949B-270777793177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334374" y="2309812"/>
+          <a:ext cx="940595" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>当てはまる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967EC434-0256-4703-A348-ABF555973451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2393156" y="2726533"/>
+          <a:ext cx="428625" cy="273842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5865F64D-D0B6-4439-8698-B521FFC1699F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2393156" y="3238502"/>
+          <a:ext cx="428625" cy="273842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C10F00-A1F8-4FD8-9984-6A7C0988D99C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2393156" y="3714752"/>
+          <a:ext cx="428625" cy="273842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5277,6 +6760,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -24088,8 +25575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6701F2-3F47-47BA-8B55-962D3C1A10EC}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/documnets/外部設計書_ヨッシーアイランド (鈴木).xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド (鈴木).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FF1180-F55C-45F9-9D45-7811584C8EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9438D9A6-8C5A-4E6E-B3B1-70D3EFD1A191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/documnets/外部設計書_ヨッシーアイランド (鈴木).xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド (鈴木).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9438D9A6-8C5A-4E6E-B3B1-70D3EFD1A191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB35D88-BB01-463D-9F17-7B7D77B07EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3065,7 +3065,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>タイトル</a:t>
+            <a:t>診断ページ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>

--- a/documnets/外部設計書_ヨッシーアイランド (鈴木).xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド (鈴木).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB35D88-BB01-463D-9F17-7B7D77B07EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D046B92-1E02-47BB-BB21-9223CE788C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3136,16 +3136,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>250031</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>261945</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83351</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3160,7 +3160,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2988469" y="2738437"/>
+          <a:off x="1357320" y="2678906"/>
           <a:ext cx="2559844" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3202,16 +3202,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>35717</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>226222</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261940</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3226,7 +3226,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6060280" y="2750343"/>
+          <a:off x="4333878" y="2667000"/>
           <a:ext cx="309562" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3268,16 +3268,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190508</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>83342</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>226226</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3292,7 +3292,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7441405" y="2750343"/>
+          <a:off x="5667383" y="2643187"/>
           <a:ext cx="309562" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3334,16 +3334,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>35724</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>166686</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>71443</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3358,7 +3358,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8620124" y="2750343"/>
+          <a:off x="7155662" y="2655093"/>
           <a:ext cx="309562" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3400,16 +3400,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>119059</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>35720</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>261935</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>178596</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>11908</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3424,7 +3424,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143622" y="2821781"/>
+          <a:off x="4417220" y="2738438"/>
           <a:ext cx="142876" cy="130970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3466,16 +3466,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>130966</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>273842</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142882</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3490,7 +3490,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7524747" y="2821781"/>
+          <a:off x="5750725" y="2714625"/>
           <a:ext cx="142876" cy="130970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3532,16 +3532,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>214310</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>119066</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>83342</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>261942</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3556,7 +3556,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8703466" y="2821781"/>
+          <a:off x="7239004" y="2726531"/>
           <a:ext cx="142876" cy="130970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3598,16 +3598,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>250031</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>261945</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:rowOff>11905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83351</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3622,7 +3622,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2988469" y="3226593"/>
+          <a:off x="1357320" y="3059905"/>
           <a:ext cx="2559844" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3664,16 +3664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>35717</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>226222</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3688,7 +3688,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6060280" y="3238499"/>
+          <a:off x="4333878" y="3095624"/>
           <a:ext cx="309562" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3730,16 +3730,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190508</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>83342</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>226226</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3754,7 +3754,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7441405" y="3238499"/>
+          <a:off x="5667383" y="3071811"/>
           <a:ext cx="309562" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3796,16 +3796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>35724</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>35717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>166686</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>71443</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3820,7 +3820,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8620124" y="3238499"/>
+          <a:off x="7155662" y="3083717"/>
           <a:ext cx="309562" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3862,16 +3862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>119059</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>35726</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>261935</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>178602</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3886,7 +3886,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143622" y="3309937"/>
+          <a:off x="4417226" y="3167062"/>
           <a:ext cx="142876" cy="130970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3928,16 +3928,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>130966</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>273842</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142882</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3952,7 +3952,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7524747" y="3309937"/>
+          <a:off x="5750725" y="3143249"/>
           <a:ext cx="142876" cy="130970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3994,16 +3994,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>214310</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>119070</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>83342</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>261946</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4018,7 +4018,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8703466" y="3309937"/>
+          <a:off x="7239008" y="3155155"/>
           <a:ext cx="142876" cy="130970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4060,16 +4060,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>250031</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>261944</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4084,7 +4084,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2988469" y="3714749"/>
+          <a:off x="1357319" y="3440906"/>
           <a:ext cx="2559844" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4126,16 +4126,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>35717</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>226222</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261940</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4150,7 +4150,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6060280" y="3726655"/>
+          <a:off x="4333878" y="3583780"/>
           <a:ext cx="309562" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4192,16 +4192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190507</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>83342</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>226225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4216,7 +4216,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7441405" y="3726655"/>
+          <a:off x="5667382" y="3559967"/>
           <a:ext cx="309562" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4258,16 +4258,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>35724</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>166686</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>71443</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4282,7 +4282,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8620124" y="3726655"/>
+          <a:off x="7155662" y="3571873"/>
           <a:ext cx="309562" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4324,16 +4324,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>119059</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>35720</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>261935</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>178596</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4348,7 +4348,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143622" y="3798093"/>
+          <a:off x="4417220" y="3655218"/>
           <a:ext cx="142876" cy="130970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4390,16 +4390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>130966</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>8</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>273842</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142884</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4414,7 +4414,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7524747" y="3798093"/>
+          <a:off x="5750727" y="3631406"/>
           <a:ext cx="142876" cy="130970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4456,16 +4456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>214310</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>119066</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>83342</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>261942</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4480,7 +4480,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8703466" y="3798093"/>
+          <a:off x="7239004" y="3655218"/>
           <a:ext cx="142876" cy="130970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4522,16 +4522,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238131</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>35720</xdr:rowOff>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59537</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4546,7 +4546,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2976562" y="2321720"/>
+          <a:off x="1333506" y="2297907"/>
           <a:ext cx="2559844" cy="261937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4589,16 +4589,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>35722</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
+      <xdr:rowOff>11908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190503</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4613,7 +4613,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2393156" y="2333627"/>
+          <a:off x="857253" y="2297908"/>
           <a:ext cx="428625" cy="273842"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4657,16 +4657,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95254</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>226219</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>166692</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4681,7 +4681,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5631656" y="2321719"/>
+          <a:off x="3929067" y="2286000"/>
           <a:ext cx="1166813" cy="261937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4724,16 +4724,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>202415</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>202416</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4748,8 +4748,75 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6881812" y="2309812"/>
+          <a:off x="5131603" y="2285999"/>
           <a:ext cx="1369219" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>やや当てはまらない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>250043</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>250037</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE71D85-593E-451D-949B-270777793177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6548449" y="2285997"/>
+          <a:ext cx="1369213" cy="261940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4791,83 +4858,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>119061</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>35726</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="テキスト ボックス 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE71D85-593E-451D-949B-270777793177}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334374" y="2309812"/>
-          <a:ext cx="940595" cy="261937"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>当てはまる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>59533</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190507</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4882,7 +4882,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2393156" y="2726533"/>
+          <a:off x="857257" y="2678908"/>
           <a:ext cx="428625" cy="273842"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4926,16 +4926,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>35724</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190505</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4950,7 +4950,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2393156" y="3238502"/>
+          <a:off x="857255" y="3059909"/>
           <a:ext cx="428625" cy="273842"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4994,16 +4994,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95252</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47627</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>202408</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5018,7 +5018,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2393156" y="3714752"/>
+          <a:off x="869158" y="3440907"/>
           <a:ext cx="428625" cy="273842"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5055,6 +5055,999 @@
             <a:t>3</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFA217F-4778-4AE4-972A-95963E89B3A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8322469" y="2655093"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>190503</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>59536</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC263807-3037-4A7F-8ED6-E47151C42F53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8405816" y="2726531"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>107159</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142878</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD353E1B-FE4D-4AA8-9428-5B4424403317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8322472" y="3083717"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>190505</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>59538</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F07E7D-CD5C-45F1-936F-0967782DE24D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8405818" y="3155155"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>107159</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142878</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3684174E-9045-4CE9-B91D-C385BA2C295D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8322472" y="3571873"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>11910</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>178591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>59532</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6129451-DC54-4659-94C2-0A59A4687244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953379" y="2274091"/>
+          <a:ext cx="1142997" cy="273846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>やや当てはまる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>154780</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E0677B-824F-4673-B0D6-DF877A5C63E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9465468" y="2655093"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238122</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>107155</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1790BEE7-E8D1-4B1A-ABED-2C3AB03C54F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9548810" y="2726531"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>154780</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C50862FA-C2E6-4813-A0F2-7AA0EE9FF045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9465468" y="3083717"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238128</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>107161</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC6D6A1-7E56-4B93-9264-E261E97FEFB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9548816" y="3155155"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>154780</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814BDAE0-ED0C-430B-B749-76A91006DD37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9465468" y="3571873"/>
+          <a:ext cx="309562" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>178591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25C828E-CA7D-4B56-88E5-F4FFC20C9EB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9155905" y="2274091"/>
+          <a:ext cx="940595" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>当てはまる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>59533</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A8C6B6-3214-4970-A62C-7C631A0CE622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8405813" y="3655218"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238122</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>107155</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E398247A-60F8-40C3-BFC0-99AB95D66EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9548810" y="3643312"/>
+          <a:ext cx="142876" cy="130970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551F4169-09E0-4414-9480-8B44C8DB9C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4393406" y="5203031"/>
+          <a:ext cx="2428875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>診断結果へ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -25575,8 +26568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6701F2-3F47-47BA-8B55-962D3C1A10EC}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/documnets/外部設計書_ヨッシーアイランド (鈴木).xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド (鈴木).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D046B92-1E02-47BB-BB21-9223CE788C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562D93F3-742B-4945-A5C3-96B6AB41777D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
